--- a/BubblesSEA/data/World Processed.xlsx
+++ b/BubblesSEA/data/World Processed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B M Mainul Hossain\Desktop\Covid Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHubProjects\CovidGraphs\BubblesSEA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,13 +42,13 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t># Corona Positive</t>
+    <t>Date</t>
   </si>
   <si>
-    <t># Deaths</t>
+    <t>#Corona Positive</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>#Deaths</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyymmdd"/>
+    <numFmt numFmtId="164" formatCode="yyyymmdd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -540,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,7 +867,7 @@
   <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/BubblesSEA/data/World Processed.xlsx
+++ b/BubblesSEA/data/World Processed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHubProjects\CovidGraphs\BubblesSEA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B M Mainul Hossain\Desktop\Covid Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,13 +42,13 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Date</t>
+    <t># Corona Positive</t>
   </si>
   <si>
-    <t>#Corona Positive</t>
+    <t># Deaths</t>
   </si>
   <si>
-    <t>#Deaths</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyymmdd"/>
+    <numFmt numFmtId="165" formatCode="yyyymmdd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -540,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,7 +867,7 @@
   <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
